--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resa_dgo_102614\Documents\VINCULACION 2024\EMS\SINOB WEB Durango\prueba interna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF9F7C2-2CE6-46E8-ABF6-4BEBDE241BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C62A254-7AEF-4F57-8B04-102F897FD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="273">
   <si>
     <t>Subsistema</t>
   </si>
@@ -836,6 +836,9 @@
   </si>
   <si>
     <t>PENDIENTES</t>
+  </si>
+  <si>
+    <t>EN PROCESO</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,7 +1309,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1364,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1386,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1397,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1408,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,7 +1419,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,7 +1430,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,7 +1848,7 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,7 +1859,7 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,7 +1870,7 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1889,7 +1892,7 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,7 +1914,7 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,7 +1925,7 @@
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,7 +1936,7 @@
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,7 +1947,7 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,7 +1958,7 @@
         <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,7 +1969,7 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,7 +1980,7 @@
         <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,7 +1991,7 @@
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2538,7 +2541,7 @@
         <v>134</v>
       </c>
       <c r="C123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,7 +2926,7 @@
         <v>171</v>
       </c>
       <c r="C158" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,7 +2937,7 @@
         <v>172</v>
       </c>
       <c r="C159" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2945,7 +2948,7 @@
         <v>173</v>
       </c>
       <c r="C160" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,7 +2959,7 @@
         <v>174</v>
       </c>
       <c r="C161" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2967,7 +2970,7 @@
         <v>175</v>
       </c>
       <c r="C162" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,7 +2981,7 @@
         <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,7 +2992,7 @@
         <v>177</v>
       </c>
       <c r="C164" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,7 +3003,7 @@
         <v>178</v>
       </c>
       <c r="C165" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3011,7 +3014,7 @@
         <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3022,7 +3025,7 @@
         <v>180</v>
       </c>
       <c r="C167" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3033,7 +3036,7 @@
         <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,7 +3047,7 @@
         <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3055,7 +3058,7 @@
         <v>183</v>
       </c>
       <c r="C170" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,7 +3069,7 @@
         <v>184</v>
       </c>
       <c r="C171" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3506,7 +3509,7 @@
         <v>224</v>
       </c>
       <c r="C211" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3517,7 +3520,7 @@
         <v>225</v>
       </c>
       <c r="C212" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3528,7 +3531,7 @@
         <v>226</v>
       </c>
       <c r="C213" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3539,7 +3542,7 @@
         <v>227</v>
       </c>
       <c r="C214" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,7 +3553,7 @@
         <v>228</v>
       </c>
       <c r="C215" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,7 +3564,7 @@
         <v>229</v>
       </c>
       <c r="C216" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3572,7 +3575,7 @@
         <v>230</v>
       </c>
       <c r="C217" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3583,7 +3586,7 @@
         <v>231</v>
       </c>
       <c r="C218" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3594,7 +3597,7 @@
         <v>232</v>
       </c>
       <c r="C219" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3605,7 +3608,7 @@
         <v>233</v>
       </c>
       <c r="C220" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3616,7 +3619,7 @@
         <v>234</v>
       </c>
       <c r="C221" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3627,7 +3630,7 @@
         <v>235</v>
       </c>
       <c r="C222" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3638,7 +3641,7 @@
         <v>236</v>
       </c>
       <c r="C223" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,7 +3652,7 @@
         <v>237</v>
       </c>
       <c r="C224" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3660,7 +3663,7 @@
         <v>238</v>
       </c>
       <c r="C225" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3935,7 +3938,7 @@
         <v>263</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3946,7 +3949,7 @@
         <v>264</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,7 +3960,7 @@
         <v>265</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3968,7 +3971,7 @@
         <v>266</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
